--- a/data/out/wiki/men/uefa/eu/active_suspense_results_eu.xlsx
+++ b/data/out/wiki/men/uefa/eu/active_suspense_results_eu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,24 +477,24 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -503,24 +503,24 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -572,45 +572,45 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -624,19 +624,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -650,19 +650,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -676,33 +676,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D10" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -711,76 +711,76 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -789,24 +789,24 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -815,24 +815,24 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -841,50 +841,50 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -893,24 +893,24 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -919,24 +919,24 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -945,24 +945,24 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -971,24 +971,24 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1014,149 +1014,149 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>1992</v>
       </c>
       <c r="D23" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D28" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1170,71 +1170,71 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D29" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D31" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1248,94 +1248,94 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D32" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D33" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D34" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D35" t="n">
         <v>84</v>
@@ -1352,175 +1352,175 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>1996</v>
       </c>
       <c r="D36" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1996</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1996</v>
       </c>
       <c r="D38" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>1996</v>
       </c>
       <c r="D39" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1996</v>
       </c>
       <c r="D40" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>1996</v>
       </c>
       <c r="D41" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1996</v>
       </c>
       <c r="D42" t="n">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1534,90 +1534,90 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>1996</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>1996</v>
       </c>
       <c r="D44" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>1996</v>
       </c>
       <c r="D45" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1627,394 +1627,394 @@
         <v>69</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>1996</v>
       </c>
       <c r="D47" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>1996</v>
       </c>
       <c r="D48" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D50" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D51" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D52" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D53" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D54" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D55" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D56" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D57" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D58" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D59" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D60" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>2000</v>
       </c>
       <c r="D61" t="n">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -2028,383 +2028,383 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>2000</v>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>2000</v>
       </c>
       <c r="D63" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>2000</v>
       </c>
       <c r="D64" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>2000</v>
       </c>
       <c r="D65" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>2000</v>
       </c>
       <c r="D66" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>2000</v>
       </c>
       <c r="D67" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>England</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>2000</v>
       </c>
       <c r="D68" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>2000</v>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>2000</v>
       </c>
       <c r="D70" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>2000</v>
       </c>
       <c r="D71" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>2000</v>
       </c>
       <c r="D72" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>2000</v>
       </c>
       <c r="D73" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>2000</v>
       </c>
       <c r="D74" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>2000</v>
       </c>
       <c r="D75" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -2418,45 +2418,45 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D78" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -2470,227 +2470,227 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D79" t="n">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D82" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D83" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D84" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D85" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D86" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D87" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -2704,97 +2704,97 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>2004</v>
       </c>
       <c r="D88" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>2004</v>
       </c>
       <c r="D89" t="n">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>2004</v>
       </c>
       <c r="D90" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>2004</v>
       </c>
       <c r="D91" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -2808,253 +2808,253 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>2004</v>
       </c>
       <c r="D92" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>England</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>2004</v>
       </c>
       <c r="D93" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>England</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>2004</v>
       </c>
       <c r="D94" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>2004</v>
       </c>
       <c r="D95" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>2004</v>
       </c>
       <c r="D96" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>2004</v>
       </c>
       <c r="D97" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>2004</v>
       </c>
       <c r="D98" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>2004</v>
       </c>
       <c r="D99" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>2004</v>
       </c>
       <c r="D100" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>2004</v>
       </c>
       <c r="D101" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -3068,305 +3068,305 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>2004</v>
       </c>
       <c r="D102" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D103" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D104" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D105" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D106" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D107" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D108" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D109" t="n">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D110" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D111" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D112" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D113" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3380,19 +3380,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D114" t="n">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3406,19 +3406,19 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>2008</v>
       </c>
       <c r="D115" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>2008</v>
       </c>
       <c r="D116" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -3458,19 +3458,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>2008</v>
       </c>
       <c r="D117" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -3484,19 +3484,19 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>2008</v>
       </c>
       <c r="D118" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3510,19 +3510,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>2008</v>
       </c>
       <c r="D119" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -3536,33 +3536,33 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>2008</v>
       </c>
       <c r="D120" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3571,50 +3571,50 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D121" t="n">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D122" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3623,140 +3623,140 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D123" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D124" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D125" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D126" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D127" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D128" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -3770,85 +3770,85 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D129" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D130" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D131" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3857,62 +3857,62 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D132" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>2012</v>
       </c>
       <c r="D133" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>2012</v>
       </c>
       <c r="D134" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -3926,33 +3926,33 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D135" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3961,24 +3961,24 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D136" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3987,24 +3987,24 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D137" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4013,154 +4013,154 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D138" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D139" t="n">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+          <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D140" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D141" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D142" t="n">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D143" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4169,24 +4169,24 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D144" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4195,17 +4195,17 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D145" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
@@ -4217,40 +4217,40 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D146" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -4264,19 +4264,19 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>2016</v>
       </c>
       <c r="D148" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -4290,45 +4290,45 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>2016</v>
       </c>
       <c r="D150" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -4342,175 +4342,175 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>2016</v>
       </c>
       <c r="D152" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>2016</v>
       </c>
       <c r="D154" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>2016</v>
       </c>
       <c r="D156" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -4524,45 +4524,45 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D158" t="n">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -4576,97 +4576,97 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D160" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D161" t="n">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D162" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D163" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
@@ -4680,45 +4680,45 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D164" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D165" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
@@ -4732,123 +4732,123 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D166" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D167" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D168" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>2021</v>
       </c>
       <c r="D169" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>2021</v>
       </c>
       <c r="D170" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -4862,19 +4862,19 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>2021</v>
       </c>
       <c r="D171" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -4888,19 +4888,19 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>2021</v>
       </c>
       <c r="D172" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -4914,253 +4914,253 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>2021</v>
       </c>
       <c r="D173" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>2021</v>
       </c>
       <c r="D174" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>2021</v>
       </c>
       <c r="D175" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>2021</v>
       </c>
       <c r="D176" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>2021</v>
       </c>
       <c r="D177" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>2021</v>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>2021</v>
       </c>
       <c r="D179" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>2021</v>
       </c>
       <c r="D180" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>2021</v>
       </c>
       <c r="D181" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>2021</v>
       </c>
       <c r="D182" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -5174,19 +5174,19 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>2021</v>
       </c>
       <c r="D183" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -5200,19 +5200,19 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>2021</v>
       </c>
       <c r="D184" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -5226,97 +5226,97 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>2021</v>
       </c>
       <c r="D185" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C186" t="n">
         <v>2021</v>
       </c>
       <c r="D186" t="n">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>2021</v>
       </c>
       <c r="D187" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>2021</v>
       </c>
       <c r="D188" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -5330,19 +5330,19 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>2021</v>
       </c>
       <c r="D189" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -5356,45 +5356,45 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>2021</v>
       </c>
       <c r="D190" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>2021</v>
       </c>
       <c r="D191" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -5408,45 +5408,45 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>2021</v>
       </c>
       <c r="D192" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>2021</v>
       </c>
       <c r="D193" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -5460,97 +5460,97 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>2021</v>
       </c>
       <c r="D194" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D195" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D196" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D197" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
@@ -5564,45 +5564,45 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D198" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D199" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -5616,492 +5616,804 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D200" t="n">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Active suspense met (losing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D201" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D202" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D203" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D204" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D205" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D206" t="n">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>2024</v>
       </c>
       <c r="D207" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C208" t="n">
         <v>2024</v>
       </c>
       <c r="D208" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>2024</v>
       </c>
       <c r="D209" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>2024</v>
       </c>
       <c r="D210" t="n">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>2024</v>
       </c>
       <c r="D211" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>2024</v>
       </c>
       <c r="D212" t="n">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+          <t>Active suspense met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>2024</v>
       </c>
       <c r="D213" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Active suspense met (drawing vs drawing)</t>
+          <t>Active suspense met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>2024</v>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>2024</v>
       </c>
       <c r="D215" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>2024</v>
       </c>
       <c r="D216" t="n">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+          <t>Active suspense met (drawing vs drawing)</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>2024</v>
       </c>
       <c r="D217" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C218" t="n">
         <v>2024</v>
       </c>
       <c r="D218" t="n">
+        <v>47</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D219" t="n">
+        <v>56</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D220" t="n">
+        <v>59</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D221" t="n">
+        <v>75</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D222" t="n">
+        <v>79</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D223" t="n">
+        <v>80</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D224" t="n">
+        <v>24</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (losing vs drawing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D225" t="n">
+        <v>37</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Active suspense met (drawing vs drawing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (drawing vs losing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D227" t="n">
+        <v>51</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D228" t="n">
+        <v>57</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (losing vs losing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D229" t="n">
+        <v>66</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D230" t="n">
         <v>94</v>
       </c>
-      <c r="E218" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" t="inlineStr">
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>

--- a/data/out/wiki/men/uefa/eu/active_suspense_results_eu.xlsx
+++ b/data/out/wiki/men/uefa/eu/active_suspense_results_eu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/uefa/eu/active_suspense_results_eu.xlsx
+++ b/data/out/wiki/men/uefa/eu/active_suspense_results_eu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="57">
   <si>
     <t>team</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Belgium</t>
+  </si>
+  <si>
+    <t>Portugal</t>
   </si>
   <si>
     <t>Spain</t>
@@ -76,6 +79,9 @@
     <t>Italy</t>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
@@ -91,28 +97,22 @@
     <t>Croatia</t>
   </si>
   <si>
-    <t>Germany</t>
+    <t>Austria</t>
   </si>
   <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Austria</t>
+    <t>Russia</t>
   </si>
   <si>
     <t>Sweden</t>
-  </si>
-  <si>
-    <t>Portugal</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
     <t>Albania</t>
-  </si>
-  <si>
-    <t>Russia</t>
   </si>
   <si>
     <t>North Macedonia</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Serbia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Group 1</t>
@@ -166,22 +169,22 @@
     <t>Active suspense met (losing vs drawing)</t>
   </si>
   <si>
+    <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+  </si>
+  <si>
     <t>Condition for moving to 2nd not met (drawing vs losing)</t>
   </si>
   <si>
-    <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
+    <t>Condition for moving to 3rd not met (losing vs losing)</t>
   </si>
   <si>
-    <t>Condition for moving to 3rd not met (losing vs losing)</t>
+    <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
   </si>
   <si>
     <t>Condition for moving to 3rd not met (losing vs drawing)</t>
   </si>
   <si>
     <t>Condition for moving to 3rd not met (drawing vs losing)</t>
-  </si>
-  <si>
-    <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>1984</v>
@@ -582,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -590,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>1984</v>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -610,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>1984</v>
@@ -622,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -630,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1984</v>
@@ -642,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -650,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>1984</v>
@@ -662,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -670,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>1984</v>
@@ -682,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -690,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>1984</v>
@@ -702,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -710,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>1984</v>
@@ -722,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -730,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>1984</v>
@@ -742,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -750,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>1984</v>
@@ -762,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -770,13 +773,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>1984</v>
       </c>
       <c r="D12">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -787,59 +790,59 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>1984</v>
       </c>
       <c r="D13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
@@ -847,47 +850,47 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>1988</v>
       </c>
       <c r="D16">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>1988</v>
       </c>
       <c r="D17">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -896,18 +899,18 @@
         <v>1988</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -916,18 +919,18 @@
         <v>1988</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -936,10 +939,10 @@
         <v>1988</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
@@ -947,7 +950,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -956,10 +959,10 @@
         <v>1988</v>
       </c>
       <c r="D21">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
@@ -970,33 +973,33 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>1988</v>
       </c>
       <c r="D22">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1007,96 +1010,96 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C26">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D27">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>1992</v>
       </c>
       <c r="D28">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1107,7 +1110,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -1116,18 +1119,18 @@
         <v>1992</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -1136,13 +1139,13 @@
         <v>1992</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1156,18 +1159,18 @@
         <v>1992</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -1176,7 +1179,7 @@
         <v>1992</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -1196,13 +1199,13 @@
         <v>1992</v>
       </c>
       <c r="D33">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1210,19 +1213,19 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>1992</v>
       </c>
       <c r="D34">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1230,13 +1233,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>1992</v>
       </c>
       <c r="D35">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1247,22 +1250,22 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1273,101 +1276,101 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
       <c r="C38">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D38">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D40">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="C41">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D41">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -1376,13 +1379,13 @@
         <v>1996</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1396,18 +1399,18 @@
         <v>1996</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -1416,18 +1419,18 @@
         <v>1996</v>
       </c>
       <c r="D44">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -1436,18 +1439,18 @@
         <v>1996</v>
       </c>
       <c r="D45">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -1456,18 +1459,18 @@
         <v>1996</v>
       </c>
       <c r="D46">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
@@ -1476,18 +1479,18 @@
         <v>1996</v>
       </c>
       <c r="D47">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
@@ -1496,18 +1499,18 @@
         <v>1996</v>
       </c>
       <c r="D48">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>40</v>
@@ -1516,18 +1519,18 @@
         <v>1996</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
         <v>40</v>
@@ -1536,18 +1539,18 @@
         <v>1996</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
         <v>40</v>
@@ -1556,18 +1559,18 @@
         <v>1996</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>40</v>
@@ -1576,18 +1579,18 @@
         <v>1996</v>
       </c>
       <c r="D52">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>40</v>
@@ -1596,13 +1599,13 @@
         <v>1996</v>
       </c>
       <c r="D53">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1616,13 +1619,13 @@
         <v>1996</v>
       </c>
       <c r="D54">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1636,18 +1639,18 @@
         <v>1996</v>
       </c>
       <c r="D55">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
@@ -1656,18 +1659,18 @@
         <v>1996</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -1676,18 +1679,18 @@
         <v>1996</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -1696,18 +1699,18 @@
         <v>1996</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
         <v>41</v>
@@ -1716,18 +1719,18 @@
         <v>1996</v>
       </c>
       <c r="D59">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>41</v>
@@ -1736,18 +1739,18 @@
         <v>1996</v>
       </c>
       <c r="D60">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
@@ -1756,67 +1759,67 @@
         <v>1996</v>
       </c>
       <c r="D61">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C62">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C63">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D63">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C64">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D64">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1827,127 +1830,127 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C65">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C66">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D66">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C67">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D67">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C68">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D68">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C69">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D69">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C70">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D70">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
         <v>39</v>
@@ -1956,18 +1959,18 @@
         <v>2000</v>
       </c>
       <c r="D71">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
         <v>39</v>
@@ -1976,18 +1979,18 @@
         <v>2000</v>
       </c>
       <c r="D72">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
@@ -1996,18 +1999,18 @@
         <v>2000</v>
       </c>
       <c r="D73">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
         <v>39</v>
@@ -2016,13 +2019,13 @@
         <v>2000</v>
       </c>
       <c r="D74">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2030,16 +2033,16 @@
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75">
         <v>2000</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
         <v>45</v>
@@ -2047,22 +2050,22 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76">
         <v>2000</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2070,64 +2073,64 @@
         <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77">
         <v>2000</v>
       </c>
       <c r="D77">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C78">
         <v>2000</v>
       </c>
       <c r="D78">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C79">
         <v>2000</v>
       </c>
       <c r="D79">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
         <v>40</v>
@@ -2136,18 +2139,18 @@
         <v>2000</v>
       </c>
       <c r="D80">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B81" t="s">
         <v>40</v>
@@ -2156,18 +2159,18 @@
         <v>2000</v>
       </c>
       <c r="D81">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
         <v>40</v>
@@ -2176,78 +2179,78 @@
         <v>2000</v>
       </c>
       <c r="D82">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83">
         <v>2000</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C84">
         <v>2000</v>
       </c>
       <c r="D84">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85">
         <v>2000</v>
       </c>
       <c r="D85">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
         <v>41</v>
@@ -2256,18 +2259,18 @@
         <v>2000</v>
       </c>
       <c r="D86">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
         <v>41</v>
@@ -2276,10 +2279,10 @@
         <v>2000</v>
       </c>
       <c r="D87">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>50</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
@@ -2296,18 +2299,18 @@
         <v>2000</v>
       </c>
       <c r="D88">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
         <v>41</v>
@@ -2316,87 +2319,87 @@
         <v>2000</v>
       </c>
       <c r="D89">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C90">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C91">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C92">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D92">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C93">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D93">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2407,167 +2410,167 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C94">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C95">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C96">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D96">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C97">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D97">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C98">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D98">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C99">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D99">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C100">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D100">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C101">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D101">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>39</v>
@@ -2576,18 +2579,18 @@
         <v>2004</v>
       </c>
       <c r="D102">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
         <v>39</v>
@@ -2596,70 +2599,70 @@
         <v>2004</v>
       </c>
       <c r="D103">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C104">
         <v>2004</v>
       </c>
       <c r="D104">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C105">
         <v>2004</v>
       </c>
       <c r="D105">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C106">
         <v>2004</v>
       </c>
       <c r="D106">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
         <v>48</v>
@@ -2667,7 +2670,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
         <v>40</v>
@@ -2676,18 +2679,18 @@
         <v>2004</v>
       </c>
       <c r="D107">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
         <v>40</v>
@@ -2696,18 +2699,18 @@
         <v>2004</v>
       </c>
       <c r="D108">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
         <v>40</v>
@@ -2716,18 +2719,18 @@
         <v>2004</v>
       </c>
       <c r="D109">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B110" t="s">
         <v>40</v>
@@ -2736,121 +2739,121 @@
         <v>2004</v>
       </c>
       <c r="D110">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111">
         <v>2004</v>
       </c>
       <c r="D111">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112">
         <v>2004</v>
       </c>
       <c r="D112">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113">
         <v>2004</v>
       </c>
       <c r="D113">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C114">
         <v>2004</v>
       </c>
       <c r="D114">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C115">
         <v>2004</v>
       </c>
       <c r="D115">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C116">
         <v>2004</v>
@@ -2862,658 +2865,658 @@
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C117">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D117">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C118">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D118">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C119">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D119">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C120">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D120">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C121">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D121">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C122">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D122">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C123">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D123">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C124">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D124">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C125">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D125">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C126">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D126">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C127">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D127">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C128">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D128">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C129">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D129">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C130">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D130">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C131">
         <v>2008</v>
       </c>
       <c r="D131">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C132">
         <v>2008</v>
       </c>
       <c r="D132">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C133">
         <v>2008</v>
       </c>
       <c r="D133">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C134">
         <v>2008</v>
       </c>
       <c r="D134">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C135">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D135">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C136">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D136">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B137" t="s">
         <v>39</v>
       </c>
       <c r="C137">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D137">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B138" t="s">
         <v>39</v>
       </c>
       <c r="C138">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D138">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C139">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D139">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C140">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D140">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C141">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D141">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C142">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D142">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C143">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D143">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C144">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D144">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C145">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D145">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B146" t="s">
         <v>41</v>
       </c>
       <c r="C146">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D146">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B147" t="s">
         <v>41</v>
       </c>
       <c r="C147">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D147">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B148" t="s">
         <v>41</v>
       </c>
       <c r="C148">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D148">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C149">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3522,87 +3525,87 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C150">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D150">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C151">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D151">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C152">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C153">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D153">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3610,613 +3613,613 @@
         <v>30</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C154">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D154">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C155">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D155">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C156">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D156">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C157">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B158" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C158">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D158">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C159">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D159">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C160">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D160">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C161">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D161">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162">
+        <v>2012</v>
+      </c>
+      <c r="D162">
         <v>28</v>
       </c>
-      <c r="B162" t="s">
-        <v>42</v>
-      </c>
-      <c r="C162">
-        <v>2016</v>
-      </c>
-      <c r="D162">
-        <v>85</v>
-      </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C163">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D163">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C164">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D164">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C165">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D165">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C166">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D166">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C167">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D167">
+        <v>35</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
         <v>50</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C168">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D168">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C169">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D169">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C170">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D170">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C171">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D171">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C172">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C173">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D173">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C174">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D174">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C175">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D175">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C176">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D176">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s">
         <v>39</v>
       </c>
       <c r="C177">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D177">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C178">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D178">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C179">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D179">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C180">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D180">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C181">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D181">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C182">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D182">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C183">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D183">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C184">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D184">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -4227,962 +4230,1822 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C185">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D185">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C186">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D186">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C187">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D187">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C188">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D188">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C189">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D189">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C190">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D190">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C191">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D191">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C192">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D192">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C193">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C194">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D194">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C195">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D195">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B196" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C196">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D196">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B197" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C197">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D197">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B198" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C198">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D198">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
+        <v>44</v>
+      </c>
+      <c r="C199">
+        <v>2016</v>
+      </c>
+      <c r="D199">
         <v>42</v>
       </c>
-      <c r="C199">
-        <v>2021</v>
-      </c>
-      <c r="D199">
-        <v>67</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B200" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C200">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D200">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B201" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C201">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D201">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B202" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C202">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D202">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C203">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D203">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C204">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D204">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C205">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D205">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B206" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C206">
         <v>2021</v>
       </c>
       <c r="D206">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B207" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C207">
         <v>2021</v>
       </c>
       <c r="D207">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B208" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C208">
         <v>2021</v>
       </c>
       <c r="D208">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
       <c r="F208" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B209" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C209">
         <v>2021</v>
       </c>
       <c r="D209">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C210">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D210">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C211">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D211">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C212">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D212">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C213">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D213">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C214">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D214">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C215">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D215">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B216" t="s">
         <v>40</v>
       </c>
       <c r="C216">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B217" t="s">
         <v>40</v>
       </c>
       <c r="C217">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C218">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C219">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D219">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B220" t="s">
         <v>41</v>
       </c>
       <c r="C220">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D220">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
       <c r="F220" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B221" t="s">
         <v>41</v>
       </c>
       <c r="C221">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D221">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B222" t="s">
         <v>41</v>
       </c>
       <c r="C222">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D222">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
       <c r="F222" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B223" t="s">
         <v>41</v>
       </c>
       <c r="C223">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D223">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B224" t="s">
         <v>41</v>
       </c>
       <c r="C224">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D224">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B225" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C225">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B226" t="s">
         <v>42</v>
       </c>
       <c r="C226">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D226">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B227" t="s">
         <v>42</v>
       </c>
       <c r="C227">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D227">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B228" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C228">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E228">
         <v>0</v>
       </c>
       <c r="F228" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C229">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D229">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C230">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D230">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E230">
         <v>0</v>
       </c>
       <c r="F230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C231">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D231">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E231">
         <v>0</v>
       </c>
       <c r="F231" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B232" t="s">
         <v>43</v>
       </c>
       <c r="C232">
+        <v>2021</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" t="s">
+        <v>43</v>
+      </c>
+      <c r="C233">
+        <v>2021</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>28</v>
+      </c>
+      <c r="B234" t="s">
+        <v>43</v>
+      </c>
+      <c r="C234">
+        <v>2021</v>
+      </c>
+      <c r="D234">
+        <v>30</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>28</v>
+      </c>
+      <c r="B235" t="s">
+        <v>43</v>
+      </c>
+      <c r="C235">
+        <v>2021</v>
+      </c>
+      <c r="D235">
+        <v>48</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>28</v>
+      </c>
+      <c r="B236" t="s">
+        <v>43</v>
+      </c>
+      <c r="C236">
+        <v>2021</v>
+      </c>
+      <c r="D236">
+        <v>56</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237" t="s">
+        <v>43</v>
+      </c>
+      <c r="C237">
+        <v>2021</v>
+      </c>
+      <c r="D237">
+        <v>59</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>28</v>
+      </c>
+      <c r="B238" t="s">
+        <v>43</v>
+      </c>
+      <c r="C238">
+        <v>2021</v>
+      </c>
+      <c r="D238">
+        <v>61</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>28</v>
+      </c>
+      <c r="B239" t="s">
+        <v>43</v>
+      </c>
+      <c r="C239">
+        <v>2021</v>
+      </c>
+      <c r="D239">
+        <v>67</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" t="s">
+        <v>43</v>
+      </c>
+      <c r="C240">
+        <v>2021</v>
+      </c>
+      <c r="D240">
+        <v>71</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>28</v>
+      </c>
+      <c r="B241" t="s">
+        <v>43</v>
+      </c>
+      <c r="C241">
+        <v>2021</v>
+      </c>
+      <c r="D241">
+        <v>84</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>28</v>
+      </c>
+      <c r="B242" t="s">
+        <v>43</v>
+      </c>
+      <c r="C242">
+        <v>2021</v>
+      </c>
+      <c r="D242">
+        <v>94</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>21</v>
+      </c>
+      <c r="B243" t="s">
+        <v>44</v>
+      </c>
+      <c r="C243">
+        <v>2021</v>
+      </c>
+      <c r="D243">
+        <v>11</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>21</v>
+      </c>
+      <c r="B244" t="s">
+        <v>44</v>
+      </c>
+      <c r="C244">
+        <v>2021</v>
+      </c>
+      <c r="D244">
+        <v>31</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245" t="s">
+        <v>44</v>
+      </c>
+      <c r="C245">
+        <v>2021</v>
+      </c>
+      <c r="D245">
+        <v>47</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" t="s">
+        <v>44</v>
+      </c>
+      <c r="C246">
+        <v>2021</v>
+      </c>
+      <c r="D246">
+        <v>60</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>34</v>
+      </c>
+      <c r="B247" t="s">
+        <v>44</v>
+      </c>
+      <c r="C247">
+        <v>2021</v>
+      </c>
+      <c r="D247">
+        <v>66</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" t="s">
+        <v>44</v>
+      </c>
+      <c r="C248">
+        <v>2021</v>
+      </c>
+      <c r="D248">
+        <v>68</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>34</v>
+      </c>
+      <c r="B249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C249">
+        <v>2021</v>
+      </c>
+      <c r="D249">
+        <v>84</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>34</v>
+      </c>
+      <c r="B250" t="s">
+        <v>39</v>
+      </c>
+      <c r="C250">
         <v>2024</v>
       </c>
-      <c r="D232">
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>34</v>
+      </c>
+      <c r="B251" t="s">
+        <v>39</v>
+      </c>
+      <c r="C251">
+        <v>2024</v>
+      </c>
+      <c r="D251">
+        <v>28</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>34</v>
+      </c>
+      <c r="B252" t="s">
+        <v>39</v>
+      </c>
+      <c r="C252">
+        <v>2024</v>
+      </c>
+      <c r="D252">
+        <v>92</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>16</v>
+      </c>
+      <c r="B253" t="s">
+        <v>39</v>
+      </c>
+      <c r="C253">
+        <v>2024</v>
+      </c>
+      <c r="D253">
+        <v>100</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>26</v>
+      </c>
+      <c r="B254" t="s">
+        <v>40</v>
+      </c>
+      <c r="C254">
+        <v>2024</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>32</v>
+      </c>
+      <c r="B255" t="s">
+        <v>40</v>
+      </c>
+      <c r="C255">
+        <v>2024</v>
+      </c>
+      <c r="D255">
+        <v>13</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>32</v>
+      </c>
+      <c r="B256" t="s">
+        <v>40</v>
+      </c>
+      <c r="C256">
+        <v>2024</v>
+      </c>
+      <c r="D256">
+        <v>55</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>32</v>
+      </c>
+      <c r="B257" t="s">
+        <v>40</v>
+      </c>
+      <c r="C257">
+        <v>2024</v>
+      </c>
+      <c r="D257">
+        <v>98</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>35</v>
+      </c>
+      <c r="B258" t="s">
+        <v>41</v>
+      </c>
+      <c r="C258">
+        <v>2024</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>35</v>
+      </c>
+      <c r="B259" t="s">
+        <v>41</v>
+      </c>
+      <c r="C259">
+        <v>2024</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>28</v>
+      </c>
+      <c r="B260" t="s">
+        <v>42</v>
+      </c>
+      <c r="C260">
+        <v>2024</v>
+      </c>
+      <c r="D260">
+        <v>6</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>28</v>
+      </c>
+      <c r="B261" t="s">
+        <v>42</v>
+      </c>
+      <c r="C261">
+        <v>2024</v>
+      </c>
+      <c r="D261">
+        <v>47</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+      <c r="B262" t="s">
+        <v>42</v>
+      </c>
+      <c r="C262">
+        <v>2024</v>
+      </c>
+      <c r="D262">
+        <v>56</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>28</v>
+      </c>
+      <c r="B263" t="s">
+        <v>42</v>
+      </c>
+      <c r="C263">
+        <v>2024</v>
+      </c>
+      <c r="D263">
+        <v>59</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>28</v>
+      </c>
+      <c r="B264" t="s">
+        <v>42</v>
+      </c>
+      <c r="C264">
+        <v>2024</v>
+      </c>
+      <c r="D264">
+        <v>75</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>28</v>
+      </c>
+      <c r="B265" t="s">
+        <v>42</v>
+      </c>
+      <c r="C265">
+        <v>2024</v>
+      </c>
+      <c r="D265">
+        <v>79</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+      <c r="B266" t="s">
+        <v>42</v>
+      </c>
+      <c r="C266">
+        <v>2024</v>
+      </c>
+      <c r="D266">
+        <v>80</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>31</v>
+      </c>
+      <c r="B267" t="s">
+        <v>43</v>
+      </c>
+      <c r="C267">
+        <v>2024</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" t="s">
+        <v>43</v>
+      </c>
+      <c r="C268">
+        <v>2024</v>
+      </c>
+      <c r="D268">
+        <v>24</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>31</v>
+      </c>
+      <c r="B269" t="s">
+        <v>43</v>
+      </c>
+      <c r="C269">
+        <v>2024</v>
+      </c>
+      <c r="D269">
+        <v>37</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>36</v>
+      </c>
+      <c r="B270" t="s">
+        <v>44</v>
+      </c>
+      <c r="C270">
+        <v>2024</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>19</v>
+      </c>
+      <c r="B271" t="s">
+        <v>44</v>
+      </c>
+      <c r="C271">
+        <v>2024</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>19</v>
+      </c>
+      <c r="B272" t="s">
+        <v>44</v>
+      </c>
+      <c r="C272">
+        <v>2024</v>
+      </c>
+      <c r="D272">
+        <v>51</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>19</v>
+      </c>
+      <c r="B273" t="s">
+        <v>44</v>
+      </c>
+      <c r="C273">
+        <v>2024</v>
+      </c>
+      <c r="D273">
+        <v>57</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>19</v>
+      </c>
+      <c r="B274" t="s">
+        <v>44</v>
+      </c>
+      <c r="C274">
+        <v>2024</v>
+      </c>
+      <c r="D274">
+        <v>66</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>19</v>
+      </c>
+      <c r="B275" t="s">
+        <v>44</v>
+      </c>
+      <c r="C275">
+        <v>2024</v>
+      </c>
+      <c r="D275">
         <v>94</v>
       </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-      <c r="F232" t="s">
-        <v>52</v>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/active_suspense_results_eu.xlsx
+++ b/data/out/wiki/men/uefa/eu/active_suspense_results_eu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:G276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>half_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>active_suspense_count</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
@@ -483,9 +488,12 @@
         <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -509,9 +517,12 @@
         <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -535,9 +546,12 @@
         <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -561,9 +575,12 @@
         <v>41</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -587,9 +604,12 @@
         <v>59</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -613,9 +633,12 @@
         <v>60</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -639,9 +662,12 @@
         <v>62</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -665,9 +691,12 @@
         <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -691,9 +720,12 @@
         <v>84</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -717,9 +749,12 @@
         <v>84</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -745,7 +780,10 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -771,7 +809,10 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -795,9 +836,12 @@
         <v>81</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -821,9 +865,12 @@
         <v>90</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -849,7 +896,10 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -875,7 +925,10 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -899,9 +952,12 @@
         <v>29</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
@@ -925,9 +981,12 @@
         <v>51</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
@@ -951,9 +1010,12 @@
         <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -977,9 +1039,12 @@
         <v>87</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -1005,7 +1070,10 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -1031,7 +1099,10 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -1057,7 +1128,10 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -1083,7 +1157,10 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -1107,9 +1184,12 @@
         <v>73</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -1133,9 +1213,12 @@
         <v>82</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1161,7 +1244,10 @@
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -1187,7 +1273,10 @@
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1211,9 +1300,12 @@
         <v>51</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -1237,9 +1329,12 @@
         <v>60</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -1263,9 +1358,12 @@
         <v>78</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -1289,9 +1387,12 @@
         <v>82</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1317,7 +1418,10 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -1343,7 +1447,10 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -1369,7 +1476,10 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1395,7 +1505,10 @@
       <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1421,7 +1534,10 @@
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1445,9 +1561,12 @@
         <v>53</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1471,9 +1590,12 @@
         <v>72</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1497,9 +1619,12 @@
         <v>84</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1523,9 +1648,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -1549,9 +1677,12 @@
         <v>23</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -1577,7 +1708,10 @@
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1601,9 +1735,12 @@
         <v>51</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1627,9 +1764,12 @@
         <v>57</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1653,9 +1793,12 @@
         <v>62</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1679,9 +1822,12 @@
         <v>78</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1707,7 +1853,10 @@
       <c r="E49" t="n">
         <v>1</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -1733,7 +1882,10 @@
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1759,7 +1911,10 @@
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -1783,9 +1938,12 @@
         <v>63</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -1809,9 +1967,12 @@
         <v>69</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -1835,9 +1996,12 @@
         <v>84</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1861,9 +2025,12 @@
         <v>90</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -1889,7 +2056,10 @@
       <c r="E56" t="n">
         <v>1</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -1913,9 +2083,12 @@
         <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -1939,9 +2112,12 @@
         <v>19</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -1965,9 +2141,12 @@
         <v>49</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -1991,9 +2170,12 @@
         <v>54</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -2017,9 +2199,12 @@
         <v>85</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -2043,9 +2228,12 @@
         <v>88</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -2069,9 +2257,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2095,9 +2286,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2121,9 +2315,12 @@
         <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -2147,9 +2344,12 @@
         <v>33</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -2173,9 +2373,12 @@
         <v>50</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -2199,9 +2402,12 @@
         <v>69</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -2225,9 +2431,12 @@
         <v>82</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -2251,9 +2460,12 @@
         <v>84</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -2277,9 +2489,12 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2305,7 +2520,10 @@
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -2331,7 +2549,10 @@
       <c r="E73" t="n">
         <v>1</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -2355,9 +2576,12 @@
         <v>41</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2381,9 +2605,12 @@
         <v>45</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -2407,9 +2634,12 @@
         <v>48</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2433,9 +2663,12 @@
         <v>54</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2459,9 +2692,12 @@
         <v>71</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2485,9 +2721,12 @@
         <v>89</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -2511,9 +2750,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2537,9 +2779,12 @@
         <v>39</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2565,7 +2810,10 @@
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -2589,9 +2837,12 @@
         <v>70</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -2615,9 +2866,12 @@
         <v>77</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -2641,9 +2895,12 @@
         <v>88</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -2669,7 +2926,10 @@
       <c r="E86" t="n">
         <v>1</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -2695,7 +2955,10 @@
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -2721,7 +2984,10 @@
       <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -2745,9 +3011,12 @@
         <v>50</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -2771,9 +3040,12 @@
         <v>51</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -2797,9 +3069,12 @@
         <v>75</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -2823,9 +3098,12 @@
         <v>94</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -2849,9 +3127,12 @@
         <v>95</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -2875,9 +3156,12 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2901,9 +3185,12 @@
         <v>8</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -2927,9 +3214,12 @@
         <v>14</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -2953,9 +3243,12 @@
         <v>31</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -2979,9 +3272,12 @@
         <v>51</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -3005,9 +3301,12 @@
         <v>59</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -3031,9 +3330,12 @@
         <v>64</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3057,9 +3359,12 @@
         <v>67</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3085,7 +3390,10 @@
       <c r="E102" t="n">
         <v>1</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -3111,7 +3419,10 @@
       <c r="E103" t="n">
         <v>1</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -3137,7 +3448,10 @@
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -3163,7 +3477,10 @@
       <c r="E105" t="n">
         <v>1</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -3187,9 +3504,12 @@
         <v>57</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
-      </c>
-      <c r="F106" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -3213,9 +3533,12 @@
         <v>5</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3239,9 +3562,12 @@
         <v>20</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3265,9 +3591,12 @@
         <v>26</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3293,7 +3622,10 @@
       <c r="E110" t="n">
         <v>1</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -3317,9 +3649,12 @@
         <v>46</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
@@ -3343,9 +3678,12 @@
         <v>68</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
@@ -3369,9 +3707,12 @@
         <v>73</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
@@ -3395,9 +3736,12 @@
         <v>76</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3421,9 +3765,12 @@
         <v>79</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3447,9 +3794,12 @@
         <v>84</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3475,7 +3825,10 @@
       <c r="E117" t="n">
         <v>1</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -3501,7 +3854,10 @@
       <c r="E118" t="n">
         <v>1</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -3525,9 +3881,12 @@
         <v>47</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
@@ -3551,9 +3910,12 @@
         <v>48</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -3577,9 +3939,12 @@
         <v>66</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -3603,9 +3968,12 @@
         <v>89</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -3629,9 +3997,12 @@
         <v>94</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -3657,7 +4028,10 @@
       <c r="E124" t="n">
         <v>1</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -3681,9 +4055,12 @@
         <v>21</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -3709,7 +4086,10 @@
       <c r="E126" t="n">
         <v>1</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -3735,7 +4115,10 @@
       <c r="E127" t="n">
         <v>1</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -3761,7 +4144,10 @@
       <c r="E128" t="n">
         <v>1</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -3785,9 +4171,12 @@
         <v>77</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3811,9 +4200,12 @@
         <v>84</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3839,7 +4231,10 @@
       <c r="E131" t="n">
         <v>1</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -3863,9 +4258,12 @@
         <v>34</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3889,9 +4287,12 @@
         <v>62</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3915,9 +4316,12 @@
         <v>71</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3941,9 +4345,12 @@
         <v>75</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3967,9 +4374,12 @@
         <v>83</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -3993,9 +4403,12 @@
         <v>87</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -4019,9 +4432,12 @@
         <v>89</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4045,9 +4461,12 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -4071,9 +4490,12 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -4097,9 +4519,12 @@
         <v>49</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -4123,9 +4548,12 @@
         <v>53</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4151,7 +4579,10 @@
       <c r="E143" t="n">
         <v>1</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -4177,7 +4608,10 @@
       <c r="E144" t="n">
         <v>1</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -4201,9 +4635,12 @@
         <v>25</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -4227,9 +4664,12 @@
         <v>54</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4253,9 +4693,12 @@
         <v>62</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4279,9 +4722,12 @@
         <v>87</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
-      </c>
-      <c r="F148" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4307,7 +4753,10 @@
       <c r="E149" t="n">
         <v>1</v>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -4331,9 +4780,12 @@
         <v>24</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4357,9 +4809,12 @@
         <v>42</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4383,9 +4838,12 @@
         <v>50</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4409,9 +4867,12 @@
         <v>61</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4435,9 +4896,12 @@
         <v>88</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4461,9 +4925,12 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -4487,9 +4954,12 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -4515,7 +4985,10 @@
       <c r="E157" t="n">
         <v>1</v>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -4539,9 +5012,12 @@
         <v>72</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
-      </c>
-      <c r="F158" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -4567,7 +5043,10 @@
       <c r="E159" t="n">
         <v>1</v>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -4593,7 +5072,10 @@
       <c r="E160" t="n">
         <v>1</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -4619,7 +5101,10 @@
       <c r="E161" t="n">
         <v>1</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -4645,7 +5130,10 @@
       <c r="E162" t="n">
         <v>1</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -4669,9 +5157,12 @@
         <v>74</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs losing)</t>
         </is>
@@ -4695,9 +5186,12 @@
         <v>80</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs losing)</t>
         </is>
@@ -4721,9 +5215,12 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -4747,9 +5244,12 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (drawing vs drawing)</t>
         </is>
@@ -4775,7 +5275,10 @@
       <c r="E167" t="n">
         <v>1</v>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -4799,9 +5302,12 @@
         <v>88</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
-      </c>
-      <c r="F168" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -4825,9 +5331,12 @@
         <v>90</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
-      </c>
-      <c r="F169" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -4853,7 +5362,10 @@
       <c r="E170" t="n">
         <v>1</v>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -4879,7 +5391,10 @@
       <c r="E171" t="n">
         <v>1</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -4903,9 +5418,12 @@
         <v>48</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>Condition for moving to 2nd not met (losing vs drawing)</t>
         </is>
@@ -4929,9 +5447,12 @@
         <v>54</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
-      </c>
-      <c r="F173" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -4955,9 +5476,12 @@
         <v>91</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
-      </c>
-      <c r="F174" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -4983,7 +5507,10 @@
       <c r="E175" t="n">
         <v>1</v>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -5009,7 +5536,10 @@
       <c r="E176" t="n">
         <v>1</v>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -5033,9 +5563,12 @@
         <v>43</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5059,9 +5592,12 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -5085,9 +5621,12 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -5111,9 +5650,12 @@
         <v>11</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -5137,9 +5679,12 @@
         <v>20</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -5163,9 +5708,12 @@
         <v>67</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -5189,9 +5737,12 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -5215,9 +5766,12 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -5241,9 +5795,12 @@
         <v>30</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
@@ -5267,9 +5824,12 @@
         <v>54</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5295,7 +5855,10 @@
       <c r="E187" t="n">
         <v>1</v>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -5321,7 +5884,10 @@
       <c r="E188" t="n">
         <v>1</v>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -5345,9 +5911,12 @@
         <v>10</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5371,9 +5940,12 @@
         <v>45</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5397,9 +5969,12 @@
         <v>65</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5423,9 +5998,12 @@
         <v>87</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5451,7 +6029,10 @@
       <c r="E193" t="n">
         <v>1</v>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -5477,7 +6058,10 @@
       <c r="E194" t="n">
         <v>1</v>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -5501,9 +6085,12 @@
         <v>84</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
-      </c>
-      <c r="F195" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -5527,9 +6114,12 @@
         <v>85</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5553,9 +6143,12 @@
         <v>18</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -5581,7 +6174,10 @@
       <c r="E198" t="n">
         <v>1</v>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -5605,9 +6201,12 @@
         <v>42</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -5631,9 +6230,12 @@
         <v>47</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
-      </c>
-      <c r="F200" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -5657,9 +6259,12 @@
         <v>50</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -5683,9 +6288,12 @@
         <v>55</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
-      </c>
-      <c r="F202" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -5709,9 +6317,12 @@
         <v>60</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
-      </c>
-      <c r="F203" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs losing)</t>
         </is>
@@ -5735,9 +6346,12 @@
         <v>62</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
-      </c>
-      <c r="F204" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -5761,9 +6375,12 @@
         <v>94</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
-      </c>
-      <c r="F205" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -5789,7 +6406,10 @@
       <c r="E206" t="n">
         <v>1</v>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -5813,9 +6433,12 @@
         <v>6</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5839,9 +6462,12 @@
         <v>26</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
-      </c>
-      <c r="F208" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5865,9 +6491,12 @@
         <v>39</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
-      </c>
-      <c r="F209" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5891,9 +6520,12 @@
         <v>62</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
-      </c>
-      <c r="F210" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5917,9 +6549,12 @@
         <v>68</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
-      </c>
-      <c r="F211" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -5943,9 +6578,12 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
-      </c>
-      <c r="F212" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -5971,7 +6609,10 @@
       <c r="E213" t="n">
         <v>1</v>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -5995,9 +6636,12 @@
         <v>59</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
-      </c>
-      <c r="F214" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -6021,9 +6665,12 @@
         <v>70</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
-      </c>
-      <c r="F215" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -6047,9 +6694,12 @@
         <v>74</v>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
-      </c>
-      <c r="F216" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -6073,9 +6723,12 @@
         <v>79</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
-      </c>
-      <c r="F217" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -6099,9 +6752,12 @@
         <v>81</v>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
-      </c>
-      <c r="F218" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -6125,9 +6781,12 @@
         <v>82</v>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F219" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -6151,9 +6810,12 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
-      </c>
-      <c r="F220" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -6177,9 +6839,12 @@
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
-      </c>
-      <c r="F221" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -6203,9 +6868,12 @@
         <v>21</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
@@ -6229,9 +6897,12 @@
         <v>24</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
-      </c>
-      <c r="F223" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6255,9 +6926,12 @@
         <v>50</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
-      </c>
-      <c r="F224" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6281,9 +6955,12 @@
         <v>58</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
-      </c>
-      <c r="F225" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6309,7 +6986,10 @@
       <c r="E226" t="n">
         <v>1</v>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -6335,7 +7015,10 @@
       <c r="E227" t="n">
         <v>1</v>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -6359,9 +7042,12 @@
         <v>17</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
-      </c>
-      <c r="F228" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6387,7 +7073,10 @@
       <c r="E229" t="n">
         <v>1</v>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -6411,9 +7100,12 @@
         <v>62</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
-      </c>
-      <c r="F230" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6437,9 +7129,12 @@
         <v>77</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
-      </c>
-      <c r="F231" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6465,7 +7160,10 @@
       <c r="E232" t="n">
         <v>1</v>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+      <c r="G232" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -6489,9 +7187,12 @@
         <v>2</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
-      </c>
-      <c r="F233" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -6515,9 +7216,12 @@
         <v>30</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
-      </c>
-      <c r="F234" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6541,9 +7245,12 @@
         <v>48</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
-      </c>
-      <c r="F235" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6567,9 +7274,12 @@
         <v>56</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
-      </c>
-      <c r="F236" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6593,9 +7303,12 @@
         <v>59</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
-      </c>
-      <c r="F237" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6619,9 +7332,12 @@
         <v>61</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
-      </c>
-      <c r="F238" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6645,9 +7361,12 @@
         <v>67</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
-      </c>
-      <c r="F239" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6671,9 +7390,12 @@
         <v>71</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
-      </c>
-      <c r="F240" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6697,9 +7419,12 @@
         <v>84</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
-      </c>
-      <c r="F241" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
@@ -6723,9 +7448,12 @@
         <v>94</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
-      </c>
-      <c r="F242" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6749,9 +7477,12 @@
         <v>11</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
-      </c>
-      <c r="F243" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6775,9 +7506,12 @@
         <v>31</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
-      </c>
-      <c r="F244" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6798,12 +7532,15 @@
         <v>2021</v>
       </c>
       <c r="D245" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
-      </c>
-      <c r="F245" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6827,9 +7564,12 @@
         <v>47</v>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
-      </c>
-      <c r="F246" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs losing)</t>
         </is>
@@ -6853,9 +7593,12 @@
         <v>60</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
-      </c>
-      <c r="F247" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6879,9 +7622,12 @@
         <v>66</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
-      </c>
-      <c r="F248" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -6905,9 +7651,12 @@
         <v>68</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
-      </c>
-      <c r="F249" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -6931,9 +7680,12 @@
         <v>84</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
-      </c>
-      <c r="F250" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -6959,7 +7711,10 @@
       <c r="E251" t="n">
         <v>1</v>
       </c>
-      <c r="F251" t="inlineStr">
+      <c r="F251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -6985,7 +7740,10 @@
       <c r="E252" t="n">
         <v>1</v>
       </c>
-      <c r="F252" t="inlineStr">
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -7009,9 +7767,12 @@
         <v>92</v>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
-      </c>
-      <c r="F253" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -7035,9 +7796,12 @@
         <v>100</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
-      </c>
-      <c r="F254" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -7063,7 +7827,10 @@
       <c r="E255" t="n">
         <v>1</v>
       </c>
-      <c r="F255" t="inlineStr">
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -7089,7 +7856,10 @@
       <c r="E256" t="n">
         <v>1</v>
       </c>
-      <c r="F256" t="inlineStr">
+      <c r="F256" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -7113,9 +7883,12 @@
         <v>55</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
-      </c>
-      <c r="F257" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -7139,9 +7912,12 @@
         <v>98</v>
       </c>
       <c r="E258" t="n">
-        <v>1</v>
-      </c>
-      <c r="F258" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" t="inlineStr">
         <is>
           <t>Active suspense met (losing vs drawing)</t>
         </is>
@@ -7167,7 +7943,10 @@
       <c r="E259" t="n">
         <v>1</v>
       </c>
-      <c r="F259" t="inlineStr">
+      <c r="F259" t="n">
+        <v>1</v>
+      </c>
+      <c r="G259" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -7193,7 +7972,10 @@
       <c r="E260" t="n">
         <v>1</v>
       </c>
-      <c r="F260" t="inlineStr">
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -7217,9 +7999,12 @@
         <v>6</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
-      </c>
-      <c r="F261" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
@@ -7243,9 +8028,12 @@
         <v>47</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
-      </c>
-      <c r="F262" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -7269,9 +8057,12 @@
         <v>56</v>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
-      </c>
-      <c r="F263" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -7295,9 +8086,12 @@
         <v>59</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
-      </c>
-      <c r="F264" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -7321,9 +8115,12 @@
         <v>75</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
-      </c>
-      <c r="F265" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -7347,9 +8144,12 @@
         <v>79</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
-      </c>
-      <c r="F266" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -7373,9 +8173,12 @@
         <v>80</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
-      </c>
-      <c r="F267" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
@@ -7401,7 +8204,10 @@
       <c r="E268" t="n">
         <v>1</v>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F268" t="n">
+        <v>1</v>
+      </c>
+      <c r="G268" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -7425,9 +8231,12 @@
         <v>24</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
-      </c>
-      <c r="F269" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs drawing)</t>
         </is>
@@ -7453,7 +8262,10 @@
       <c r="E270" t="n">
         <v>1</v>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F270" t="n">
+        <v>1</v>
+      </c>
+      <c r="G270" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -7479,7 +8291,10 @@
       <c r="E271" t="n">
         <v>1</v>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="F271" t="n">
+        <v>1</v>
+      </c>
+      <c r="G271" t="inlineStr">
         <is>
           <t>Active suspense met (drawing vs drawing)</t>
         </is>
@@ -7503,9 +8318,12 @@
         <v>2</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
-      </c>
-      <c r="F272" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs losing)</t>
         </is>
@@ -7529,9 +8347,12 @@
         <v>51</v>
       </c>
       <c r="E273" t="n">
-        <v>0</v>
-      </c>
-      <c r="F273" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -7555,9 +8376,12 @@
         <v>57</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
-      </c>
-      <c r="F274" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
@@ -7581,9 +8405,12 @@
         <v>66</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
-      </c>
-      <c r="F275" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (drawing vs drawing)</t>
         </is>
@@ -7607,9 +8434,12 @@
         <v>94</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
-      </c>
-      <c r="F276" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" t="inlineStr">
         <is>
           <t>Condition for moving to 3rd not met (losing vs losing)</t>
         </is>
